--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_EQ组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>No</t>
   </si>
@@ -234,10 +239,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>官网首页底部“公众平台”内容修改，更换二维码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>修复官网房间详情页室友过多导致页面样式扭曲的问题</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -257,10 +258,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>王龙国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>金刚</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -289,13 +286,21 @@
   </si>
   <si>
     <t>紧急程度</t>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -654,6 +659,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,12 +676,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1024,17 +1029,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="B2:C2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
@@ -1060,15 +1065,15 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1125,12 +1130,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="D2" s="29" t="s">
         <v>50</v>
       </c>
@@ -1177,12 +1186,16 @@
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1">
+    <row r="3" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="D3" s="29" t="s">
         <v>51</v>
       </c>
@@ -1229,12 +1242,16 @@
       <c r="U3" s="13"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:22" ht="33">
+    <row r="4" spans="1:22" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="D4" s="30" t="s">
         <v>53</v>
       </c>
@@ -1280,20 +1297,24 @@
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>36</v>
@@ -1309,28 +1330,40 @@
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
+      <c r="N5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="11">
+        <v>42681</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" s="30" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>42</v>
@@ -1345,20 +1378,20 @@
         <v>42681</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="11">
         <v>42681</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>39</v>
@@ -1374,20 +1407,24 @@
       <c r="T6" s="7"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="D7" s="30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>36</v>
@@ -1396,20 +1433,20 @@
         <v>42681</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" s="11">
         <v>42681</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>39</v>
@@ -1420,25 +1457,31 @@
       <c r="Q7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="7"/>
+      <c r="R7" s="7">
+        <v>4411</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="D8" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>36</v>
@@ -1454,13 +1497,13 @@
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>39</v>
@@ -1472,18 +1515,22 @@
         <v>40</v>
       </c>
       <c r="R8" s="7">
-        <v>4411</v>
+        <v>4481</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="D9" s="30" t="s">
         <v>60</v>
       </c>
@@ -1513,7 +1560,7 @@
         <v>38</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>39</v>
@@ -1525,26 +1572,30 @@
         <v>40</v>
       </c>
       <c r="R9" s="7">
-        <v>4481</v>
+        <v>4492</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="D10" s="30" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>36</v>
@@ -1553,20 +1604,20 @@
         <v>42681</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="11">
         <v>42681</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="12" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>38</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>39</v>
@@ -1577,69 +1628,39 @@
       <c r="Q10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="7">
-        <v>4492</v>
-      </c>
+      <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="11">
-        <v>42681</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="11">
-        <v>42681</v>
-      </c>
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="11">
-        <v>42681</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1658,10 +1679,10 @@
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="30"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1681,10 +1702,10 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
-      <c r="A14" s="16"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="30"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1695,7 +1716,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="10"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="12"/>
@@ -1704,33 +1725,33 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="11"/>
       <c r="K15" s="6"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="4"/>
       <c r="E16" s="7"/>
       <c r="F16" s="10"/>
@@ -1750,10 +1771,10 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
       <c r="F17" s="10"/>
@@ -1773,10 +1794,10 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5">
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
       <c r="F18" s="10"/>
@@ -1796,10 +1817,10 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="4"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10"/>
@@ -1819,10 +1840,10 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
       <c r="F20" s="10"/>
@@ -1842,10 +1863,10 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="4"/>
       <c r="E21" s="7"/>
       <c r="F21" s="10"/>
@@ -1865,10 +1886,10 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="4"/>
       <c r="E22" s="7"/>
       <c r="F22" s="10"/>
@@ -1888,10 +1909,10 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="4"/>
       <c r="E23" s="7"/>
       <c r="F23" s="10"/>
@@ -1911,7 +1932,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1934,7 +1955,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1957,7 +1978,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1980,7 +2001,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2003,7 +2024,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2026,7 +2047,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2049,7 +2070,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2072,7 +2093,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2095,7 +2116,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2118,7 +2139,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2141,7 +2162,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2164,7 +2185,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2174,7 +2195,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="5"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="11"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="6"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
@@ -2187,7 +2208,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2210,7 +2231,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2233,7 +2254,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2256,7 +2277,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2279,7 +2300,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2302,7 +2323,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2325,7 +2346,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2348,7 +2369,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2371,7 +2392,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2394,7 +2415,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2417,7 +2438,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2440,7 +2461,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2463,7 +2484,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2486,7 +2507,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2509,7 +2530,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2532,7 +2553,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2555,7 +2576,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2578,7 +2599,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2601,7 +2622,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2624,7 +2645,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2647,7 +2668,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2670,7 +2691,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2693,7 +2714,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2716,7 +2737,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2739,7 +2760,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2762,7 +2783,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2785,7 +2806,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2808,7 +2829,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2831,7 +2852,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2854,7 +2875,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2877,7 +2898,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2900,7 +2921,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2923,7 +2944,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2946,7 +2967,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2969,7 +2990,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2992,7 +3013,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3015,7 +3036,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3038,7 +3059,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3061,7 +3082,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3084,7 +3105,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3107,7 +3128,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5">
+    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3130,7 +3151,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5">
+    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3153,7 +3174,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5">
+    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3176,7 +3197,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5">
+    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3199,7 +3220,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5">
+    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3222,7 +3243,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5">
+    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3245,7 +3266,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5">
+    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3268,7 +3289,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5">
+    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3291,7 +3312,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5">
+    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3314,7 +3335,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5">
+    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3337,7 +3358,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5">
+    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3360,7 +3381,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5">
+    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3383,7 +3404,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5">
+    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3406,7 +3427,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5">
+    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3429,7 +3450,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5">
+    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3452,7 +3473,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5">
+    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3475,7 +3496,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5">
+    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3498,7 +3519,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5">
+    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3521,7 +3542,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5">
+    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3544,7 +3565,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5">
+    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3567,7 +3588,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5">
+    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3590,7 +3611,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5">
+    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3613,7 +3634,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5">
+    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3636,7 +3657,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5">
+    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3659,7 +3680,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5">
+    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3682,7 +3703,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5">
+    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3705,7 +3726,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5">
+    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3728,7 +3749,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5">
+    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3751,7 +3772,7 @@
       <c r="T103" s="7"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5">
+    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3774,7 +3795,7 @@
       <c r="T104" s="7"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5">
+    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3797,7 +3818,7 @@
       <c r="T105" s="7"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5">
+    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3820,7 +3841,7 @@
       <c r="T106" s="7"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5">
+    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3843,7 +3864,7 @@
       <c r="T107" s="7"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5">
+    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3866,7 +3887,7 @@
       <c r="T108" s="7"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5">
+    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3889,7 +3910,7 @@
       <c r="T109" s="7"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5">
+    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3912,7 +3933,7 @@
       <c r="T110" s="7"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5">
+    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3935,7 +3956,7 @@
       <c r="T111" s="7"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5">
+    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3953,12 +3974,9 @@
       <c r="O112" s="7"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="4"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5">
+    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3978,7 +3996,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5">
+    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3998,7 +4016,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5">
+    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4018,7 +4036,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5">
+    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4038,7 +4056,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5">
+    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4058,7 +4076,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5">
+    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4078,7 +4096,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5">
+    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4098,7 +4116,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5">
+    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4118,7 +4136,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5">
+    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4138,7 +4156,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5">
+    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4158,7 +4176,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5">
+    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4178,7 +4196,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5">
+    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4198,7 +4216,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5">
+    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4218,7 +4236,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5">
+    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4238,7 +4256,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5">
+    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4258,7 +4276,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5">
+    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4278,7 +4296,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5">
+    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4298,7 +4316,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5">
+    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4318,7 +4336,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5">
+    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4338,7 +4356,7 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5">
+    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4358,7 +4376,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5">
+    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4378,7 +4396,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="16.5">
+    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4398,7 +4416,7 @@
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="16.5">
+    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4418,7 +4436,7 @@
       <c r="Q135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" ht="16.5">
+    <row r="136" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4438,7 +4456,7 @@
       <c r="Q136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" ht="16.5">
+    <row r="137" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4458,7 +4476,7 @@
       <c r="Q137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" ht="16.5">
+    <row r="138" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4478,7 +4496,7 @@
       <c r="Q138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" ht="16.5">
+    <row r="139" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -4498,7 +4516,7 @@
       <c r="Q139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="1:21" ht="16.5">
+    <row r="140" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -4518,13 +4536,13 @@
       <c r="Q140" s="4"/>
       <c r="U140" s="4"/>
     </row>
-    <row r="141" spans="1:21" ht="16.5">
+    <row r="141" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="4"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="10"/>
+      <c r="F141" s="7"/>
       <c r="G141" s="10"/>
       <c r="H141" s="5"/>
       <c r="I141" s="7"/>
@@ -4538,7 +4556,7 @@
       <c r="Q141" s="4"/>
       <c r="U141" s="4"/>
     </row>
-    <row r="142" spans="1:21" ht="16.5">
+    <row r="142" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -4558,7 +4576,7 @@
       <c r="Q142" s="4"/>
       <c r="U142" s="4"/>
     </row>
-    <row r="143" spans="1:21" ht="16.5">
+    <row r="143" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -4570,22 +4588,22 @@
       <c r="I143" s="7"/>
       <c r="J143" s="5"/>
       <c r="K143" s="6"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
       <c r="N143" s="7"/>
       <c r="O143" s="7"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="4"/>
       <c r="U143" s="4"/>
     </row>
-    <row r="144" spans="1:21" ht="16.5">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="4"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
-      <c r="G144" s="10"/>
+      <c r="G144" s="7"/>
       <c r="H144" s="5"/>
       <c r="I144" s="7"/>
       <c r="J144" s="5"/>
@@ -4598,7 +4616,7 @@
       <c r="Q144" s="4"/>
       <c r="U144" s="4"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -4618,7 +4636,7 @@
       <c r="Q145" s="4"/>
       <c r="U145" s="4"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -4638,153 +4656,133 @@
       <c r="Q146" s="4"/>
       <c r="U146" s="4"/>
     </row>
-    <row r="147" spans="1:21">
-      <c r="A147" s="7"/>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="6"/>
-      <c r="L147" s="7"/>
-      <c r="M147" s="7"/>
-      <c r="N147" s="7"/>
-      <c r="O147" s="7"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="4"/>
-      <c r="U147" s="4"/>
-    </row>
-    <row r="148" spans="1:21">
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="2:3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="2:3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="2:3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="2:3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="2:3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="2:3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="2:3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
     </row>
-    <row r="171" spans="2:3">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
     </row>
-    <row r="172" spans="2:3">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
     </row>
-    <row r="173" spans="2:3">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
     </row>
-    <row r="174" spans="2:3">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
     </row>
-    <row r="175" spans="2:3">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
     </row>
-    <row r="176" spans="2:3">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
     </row>
-    <row r="177" spans="2:3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
     </row>
-    <row r="178" spans="2:3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
-    </row>
-    <row r="179" spans="2:3">
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4794,45 +4792,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4861,7 +4859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4872,7 +4870,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4883,7 +4881,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4894,7 +4892,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4905,7 +4903,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4916,7 +4914,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4927,7 +4925,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4938,7 +4936,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4949,7 +4947,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4960,7 +4958,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4971,7 +4969,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5000,14 +4998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5018,7 +5016,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -5044,7 +5042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -5054,7 +5052,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -5064,7 +5062,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5074,7 +5072,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5084,7 +5082,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5094,7 +5092,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5104,7 +5102,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5114,7 +5112,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5124,7 +5122,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5134,7 +5132,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5144,7 +5142,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5154,7 +5152,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5164,7 +5162,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5174,7 +5172,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5184,7 +5182,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5194,7 +5192,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5204,7 +5202,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5214,7 +5212,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
